--- a/Stocks/LICHSGFIN.xlsx
+++ b/Stocks/LICHSGFIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>693.85</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>698.00651225439151</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>705.86990100272169</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>20.750578089107776</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.7000000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>7.6499999999999773</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.35294117647059525</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>729.72374467082136</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-10.759171027937441</v>
       </c>
       <c r="Y67">
         <v>-4.4910259331767515</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>657.7</v>
+      </c>
+      <c r="D83">
+        <v>661.5</v>
+      </c>
+      <c r="E83">
+        <v>650.65</v>
+      </c>
+      <c r="F83">
+        <v>657.95</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>656.7</v>
+      </c>
+      <c r="H83">
+        <v>655.91410303516022</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>664.77386158487616</v>
+      </c>
+      <c r="K83">
+        <v>649.37231872433347</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>49.44892935034509</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.3000000000000682</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>10.850000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.67281105990783896</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>661.8916047729698</v>
+      </c>
+      <c r="W83">
+        <v>680.56435314160979</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-18.672748368639986</v>
+      </c>
+      <c r="Y83">
+        <v>-19.592302277006613</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>655</v>
+      </c>
+      <c r="D84">
+        <v>672</v>
+      </c>
+      <c r="E84">
+        <v>652.4</v>
+      </c>
+      <c r="F84">
+        <v>658.65</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>661.01666666666677</v>
+      </c>
+      <c r="H84">
+        <v>658.46538485091355</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>666.37967012157037</v>
+      </c>
+      <c r="K84">
+        <v>650.04513678559272</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>50.512358637143585</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>19.600000000000023</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.31887755102040777</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>661.39289634635907</v>
+      </c>
+      <c r="W84">
+        <v>678.94106772371276</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-17.548171377353697</v>
+      </c>
+      <c r="Y84">
+        <v>-19.183476097076031</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>664</v>
+      </c>
+      <c r="D85">
+        <v>667</v>
+      </c>
+      <c r="E85">
+        <v>660</v>
+      </c>
+      <c r="F85">
+        <v>663</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>663.33333333333337</v>
+      </c>
+      <c r="H85">
+        <v>660.8993590921234</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>666.51752120566584</v>
+      </c>
+      <c r="K85">
+        <v>652.25732861101653</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.463295291650404</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>661.64014306230388</v>
+      </c>
+      <c r="W85">
+        <v>677.76024789232667</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-16.120104830022797</v>
+      </c>
+      <c r="Y85">
+        <v>-18.570801843665386</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>664.7</v>
+      </c>
+      <c r="D86">
+        <v>676.2</v>
+      </c>
+      <c r="E86">
+        <v>657.8</v>
+      </c>
+      <c r="F86">
+        <v>673.95</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>669.31666666666672</v>
+      </c>
+      <c r="H86">
+        <v>665.10801287939512</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>668.66918315996236</v>
+      </c>
+      <c r="K86">
+        <v>653.489033364124</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>70.500741929251703</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>16.150000000000091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>18.400000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.87771739130434845</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>663.53396720656485</v>
+      </c>
+      <c r="W86">
+        <v>677.47800730770985</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-13.944040101144992</v>
+      </c>
+      <c r="Y86">
+        <v>-17.645449495161309</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>677.9</v>
+      </c>
+      <c r="D87">
+        <v>684</v>
+      </c>
+      <c r="E87">
+        <v>674.9</v>
+      </c>
+      <c r="F87">
+        <v>681</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>679.9666666666667</v>
+      </c>
+      <c r="H87">
+        <v>672.53733977303091</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>672.07603134663736</v>
+      </c>
+      <c r="K87">
+        <v>658.24702594987423</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.337528533846537</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>6.1000000000000227</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>9.1000000000000227</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.67032967032967117</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>666.22104917478566</v>
+      </c>
+      <c r="W87">
+        <v>677.73889565528691</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-11.517846480501248</v>
+      </c>
+      <c r="Y87">
+        <v>-16.419928892229297</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>684</v>
+      </c>
+      <c r="D88">
+        <v>689.55</v>
+      </c>
+      <c r="E88">
+        <v>673.05</v>
+      </c>
+      <c r="F88">
+        <v>675.2</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>679.26666666666665</v>
+      </c>
+      <c r="H88">
+        <v>675.90200321984878</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>675.9591354918291</v>
+      </c>
+      <c r="K88">
+        <v>661.53657573879104</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>63.430908034707578</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000909</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>16.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.13030303030303581</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>667.6024262248186</v>
+      </c>
+      <c r="W88">
+        <v>677.55082931045081</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-9.9484030856322079</v>
+      </c>
+      <c r="Y88">
+        <v>-15.125623730909879</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>679.6</v>
+      </c>
+      <c r="D89">
+        <v>683.8</v>
+      </c>
+      <c r="E89">
+        <v>673.55</v>
+      </c>
+      <c r="F89">
+        <v>677</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>678.11666666666667</v>
+      </c>
+      <c r="H89">
+        <v>677.00933494325773</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>677.70154982697818</v>
+      </c>
+      <c r="K89">
+        <v>664.20622557461525</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>65.681794258752006</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.4500000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>10.25</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.336585365853663</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>669.04820680561579</v>
+      </c>
+      <c r="W89">
+        <v>677.51002713930632</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-8.4618203336905253</v>
+      </c>
+      <c r="Y89">
+        <v>-13.792863051466009</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>675</v>
+      </c>
+      <c r="D90">
+        <v>681.15</v>
+      </c>
+      <c r="E90">
+        <v>670.55</v>
+      </c>
+      <c r="F90">
+        <v>674.2</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>675.3</v>
+      </c>
+      <c r="H90">
+        <v>676.15466747162884</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>678.46787208764965</v>
+      </c>
+      <c r="K90">
+        <v>665.61595322470077</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>58.661027121093511</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.6500000000000909</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>10.600000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.3443396226415173</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>669.8407903739826</v>
+      </c>
+      <c r="W90">
+        <v>677.26483994380214</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-7.4240495698195446</v>
+      </c>
+      <c r="Y90">
+        <v>-12.519100355136716</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>679.2</v>
+      </c>
+      <c r="D91">
+        <v>684.5</v>
+      </c>
+      <c r="E91">
+        <v>671.75</v>
+      </c>
+      <c r="F91">
+        <v>673.35</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>676.5333333333333</v>
+      </c>
+      <c r="H91">
+        <v>676.34400040248102</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>679.80834495706085</v>
+      </c>
+      <c r="K91">
+        <v>666.97907473032285</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>56.374414924400938</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>12.75</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.12549019607843315</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>670.38066877798531</v>
+      </c>
+      <c r="W91">
+        <v>676.97485179981675</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-6.5941830218314408</v>
+      </c>
+      <c r="Y91">
+        <v>-11.334116888475661</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>671.6</v>
+      </c>
+      <c r="D92">
+        <v>675.75</v>
+      </c>
+      <c r="E92">
+        <v>655.7</v>
+      </c>
+      <c r="F92">
+        <v>658.75</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>663.4</v>
+      </c>
+      <c r="H92">
+        <v>669.87200020124055</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>678.90649052215849</v>
+      </c>
+      <c r="K92">
+        <v>664.47261367913995</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>30.689549031239789</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.0499999999999545</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>20.049999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.15211970074812775</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>668.59133511983373</v>
+      </c>
+      <c r="W92">
+        <v>675.62486277760809</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-7.0335276577743571</v>
+      </c>
+      <c r="Y92">
+        <v>-10.4739990423354</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>664.9</v>
+      </c>
+      <c r="D93">
+        <v>665</v>
+      </c>
+      <c r="E93">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="F93">
+        <v>654.75</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>657.65</v>
+      </c>
+      <c r="H93">
+        <v>663.76100010062032</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>675.8161592950122</v>
+      </c>
+      <c r="K93">
+        <v>661.96758841710891</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>26.547328414609474</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>11.799999999999955</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.13135593220338648</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>666.46189894755162</v>
+      </c>
+      <c r="W93">
+        <v>674.07857664593337</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-7.6166776983817499</v>
+      </c>
+      <c r="Y93">
+        <v>-9.9025347735446694</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>659.25</v>
+      </c>
+      <c r="D94">
+        <v>665.5</v>
+      </c>
+      <c r="E94">
+        <v>655.29999999999995</v>
+      </c>
+      <c r="F94">
+        <v>659.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>660.25</v>
+      </c>
+      <c r="H94">
+        <v>662.00550005031016</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>673.52367945167612</v>
+      </c>
+      <c r="K94">
+        <v>660.48590210219584</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>39.759760659161095</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>4.6500000000000909</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>10.200000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.45588235294118334</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>665.46006834023603</v>
+      </c>
+      <c r="W94">
+        <v>673.03201541290127</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-7.5719470726652389</v>
+      </c>
+      <c r="Y94">
+        <v>-9.4364172333687826</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>660.25</v>
+      </c>
+      <c r="D95">
+        <v>671</v>
+      </c>
+      <c r="E95">
+        <v>658.8</v>
+      </c>
+      <c r="F95">
+        <v>660.1</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>663.30000000000007</v>
+      </c>
+      <c r="H95">
+        <v>662.65275002515511</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>672.96286179574804</v>
+      </c>
+      <c r="K95">
+        <v>660.1112571905968</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>40.147957574727819</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>12.200000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.10655737704918553</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>664.63544244173818</v>
+      </c>
+      <c r="W95">
+        <v>672.07408834527894</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-7.4386459035407597</v>
+      </c>
+      <c r="Y95">
+        <v>-9.0368629674031773</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>663.2</v>
+      </c>
+      <c r="D96">
+        <v>666.3</v>
+      </c>
+      <c r="E96">
+        <v>655.85</v>
+      </c>
+      <c r="F96">
+        <v>659.15</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>660.43333333333339</v>
+      </c>
+      <c r="H96">
+        <v>661.5430416792442</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>671.48222584113739</v>
+      </c>
+      <c r="K96">
+        <v>659.16431114824195</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>38.199182058845551</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>3.2999999999999545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>10.449999999999932</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.31578947368420823</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>663.79152821993227</v>
+      </c>
+      <c r="W96">
+        <v>671.11674846785081</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-7.3252202479185371</v>
+      </c>
+      <c r="Y96">
+        <v>-8.6945344235062496</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>651.1</v>
+      </c>
+      <c r="D97">
+        <v>656.7</v>
+      </c>
+      <c r="E97">
+        <v>644</v>
+      </c>
+      <c r="F97">
+        <v>645</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>648.56666666666672</v>
+      </c>
+      <c r="H97">
+        <v>655.0548541729554</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>668.19728676532907</v>
+      </c>
+      <c r="K97">
+        <v>655.79446422641035</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>20.065386061725494</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>12.700000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>7.8740157480314682E-2</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>660.90052387840421</v>
+      </c>
+      <c r="W97">
+        <v>669.18217450726922</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-8.2816506288650089</v>
+      </c>
+      <c r="Y97">
+        <v>-8.6119576645780018</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>650</v>
+      </c>
+      <c r="D98">
+        <v>660.45</v>
+      </c>
+      <c r="E98">
+        <v>648.5</v>
+      </c>
+      <c r="F98">
+        <v>657.9</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>655.61666666666667</v>
+      </c>
+      <c r="H98">
+        <v>655.33576041981109</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>666.47566748414488</v>
+      </c>
+      <c r="K98">
+        <v>654.17347217609699</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>48.127279491192112</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>11.950000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.78661087866108292</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>660.43890482018821</v>
+      </c>
+      <c r="W98">
+        <v>668.3464578771011</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-7.9075530569128887</v>
+      </c>
+      <c r="Y98">
+        <v>-8.4710767430449785</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>655</v>
+      </c>
+      <c r="D99">
+        <v>662.95</v>
+      </c>
+      <c r="E99">
+        <v>648.4</v>
+      </c>
+      <c r="F99">
+        <v>649.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>653.61666666666667</v>
+      </c>
+      <c r="H99">
+        <v>654.47621354323883</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>665.69218582100154</v>
+      </c>
+      <c r="K99">
+        <v>652.89047835918655</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>37.431376102365071</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>14.550000000000068</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>7.5601374570447938E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>658.75599638631309</v>
+      </c>
+      <c r="W99">
+        <v>666.95042396027884</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-8.1944275739657542</v>
+      </c>
+      <c r="Y99">
+        <v>-8.4157469092291333</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>654</v>
+      </c>
+      <c r="D100">
+        <v>656.55</v>
+      </c>
+      <c r="E100">
+        <v>646.45000000000005</v>
+      </c>
+      <c r="F100">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>650.76666666666665</v>
+      </c>
+      <c r="H100">
+        <v>652.62144010495274</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>663.66058897189009</v>
+      </c>
+      <c r="K100">
+        <v>651.45926094603396</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>37.185418891572077</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>10.099999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.28217821782177571</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>657.3012277114957</v>
+      </c>
+      <c r="W100">
+        <v>665.6429851484063</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-8.3417574369105978</v>
+      </c>
+      <c r="Y100">
+        <v>-8.4009490147654269</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>650.70000000000005</v>
+      </c>
+      <c r="D101">
+        <v>662.4</v>
+      </c>
+      <c r="E101">
+        <v>642.9</v>
+      </c>
+      <c r="F101">
+        <v>661.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>655.6</v>
+      </c>
+      <c r="H101">
+        <v>654.11072005247638</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>663.3804580892479</v>
+      </c>
+      <c r="K101">
+        <v>649.55720295802644</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>58.152344224078391</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.95384615384615501</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>657.94719267895789</v>
+      </c>
+      <c r="W101">
+        <v>665.33609735963546</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-7.3889046806775696</v>
+      </c>
+      <c r="Y101">
+        <v>-8.1985401479478561</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>658.25</v>
+      </c>
+      <c r="D102">
+        <v>658.9</v>
+      </c>
+      <c r="E102">
+        <v>635</v>
+      </c>
+      <c r="F102">
+        <v>636</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>643.30000000000007</v>
+      </c>
+      <c r="H102">
+        <v>648.70536002623817</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>662.38480073608173</v>
+      </c>
+      <c r="K102">
+        <v>646.32226896735392</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>31.062681861686364</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>23.899999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.1841004184100458E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>654.57070149757976</v>
+      </c>
+      <c r="W102">
+        <v>663.1630531107736</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-8.5923516131938413</v>
+      </c>
+      <c r="Y102">
+        <v>-8.2773024409970528</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>636.29999999999995</v>
+      </c>
+      <c r="D103">
+        <v>637.75</v>
+      </c>
+      <c r="E103">
+        <v>613.65</v>
+      </c>
+      <c r="F103">
+        <v>622.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>624.63333333333333</v>
+      </c>
+      <c r="H103">
+        <v>636.6693466797858</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>656.91040057250802</v>
+      </c>
+      <c r="K103">
+        <v>639.06176475238635</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.743214447524359</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>8.8500000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>24.100000000000023</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.36721991701244872</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>649.63674742102899</v>
+      </c>
+      <c r="W103">
+        <v>660.15097510256817</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-10.514227681539182</v>
+      </c>
+      <c r="Y103">
+        <v>-8.7246874891054791</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>622.1</v>
+      </c>
+      <c r="D104">
+        <v>628.1</v>
+      </c>
+      <c r="E104">
+        <v>616.25</v>
+      </c>
+      <c r="F104">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>620.71666666666658</v>
+      </c>
+      <c r="H104">
+        <v>628.69300667322614</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>650.50808933417295</v>
+      </c>
+      <c r="K104">
+        <v>633.9924836963005</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>21.534915767899328</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.13080168776370898</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>644.7387862793322</v>
+      </c>
+      <c r="W104">
+        <v>657.01386583571127</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-12.275079556379069</v>
+      </c>
+      <c r="Y104">
+        <v>-9.4347659025601978</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>626.75</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>623.55000000000007</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>622.15000000000009</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>620.80000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>622.25</v>
+      </c>
+      <c r="D105">
+        <v>624.45000000000005</v>
+      </c>
+      <c r="E105">
+        <v>603.95000000000005</v>
+      </c>
+      <c r="F105">
+        <v>606</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>611.4666666666667</v>
+      </c>
+      <c r="H105">
+        <v>620.07983666994642</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>644.71740281546784</v>
+      </c>
+      <c r="K105">
+        <v>627.31637620823369</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>16.669369267567799</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999545</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>20.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>9.9999999999997785E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>638.7789730055888</v>
+      </c>
+      <c r="W105">
+        <v>653.23506095899188</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-14.456087953403085</v>
+      </c>
+      <c r="Y105">
+        <v>-10.439030312728775</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>622.1</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>616.6</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>614.20000000000005</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>611.80000000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>611.4</v>
+      </c>
+      <c r="D106">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="E106">
+        <v>609.85</v>
+      </c>
+      <c r="F106">
+        <v>620</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>619.88333333333333</v>
+      </c>
+      <c r="H106">
+        <v>619.98158500163981</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>641.40242441203054</v>
+      </c>
+      <c r="K106">
+        <v>623.4349592730706</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>37.583647348954472</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>10.149999999999977</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>19.949999999999932</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.50877192982456199</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>635.8899002354982</v>
+      </c>
+      <c r="W106">
+        <v>650.77320459165912</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-14.88330435616092</v>
+      </c>
+      <c r="Y106">
+        <v>-11.327885121415203</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>622.5</v>
+      </c>
+      <c r="D107">
+        <v>635</v>
+      </c>
+      <c r="E107">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="F107">
+        <v>627</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>627.9</v>
+      </c>
+      <c r="H107">
+        <v>623.94079250081995</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>639.9796634315793</v>
+      </c>
+      <c r="K107">
+        <v>623.04941276794386</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>46.046854918087234</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.39849624060150168</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>634.52222327619074</v>
+      </c>
+      <c r="W107">
+        <v>649.01222647375846</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-14.490003197567717</v>
+      </c>
+      <c r="Y107">
+        <v>-11.960308736645706</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
